--- a/Income/LHX_inc.xlsx
+++ b/Income/LHX_inc.xlsx
@@ -1672,10 +1672,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>0.2941</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.2917</v>
@@ -1777,10 +1775,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.1079</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.1095</v>
@@ -1882,10 +1878,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.0898</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.0727</v>
@@ -1987,10 +1981,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.0755</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.0615</v>
@@ -2092,10 +2084,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.1447</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.1381</v>
@@ -3345,10 +3335,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0.1673</v>
@@ -3450,10 +3438,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>0.1609</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.1533</v>
